--- a/Kmeans_centroides.xlsx
+++ b/Kmeans_centroides.xlsx
@@ -503,67 +503,67 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>22.13597548430484</v>
+        <v>18.15836302198632</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02344009951816284</v>
+        <v>0.4218852189891472</v>
       </c>
       <c r="D2" t="n">
-        <v>3.335268450436255</v>
+        <v>23.48472422562521</v>
       </c>
       <c r="E2" t="n">
-        <v>3065.852859583844</v>
+        <v>37366.40651137198</v>
       </c>
       <c r="F2" t="n">
-        <v>592642.9443203296</v>
+        <v>216169.6182453737</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1722597317872389</v>
+        <v>0.2987037897921342</v>
       </c>
       <c r="H2" t="n">
-        <v>127364034.8896078</v>
+        <v>-5347765.172345432</v>
       </c>
       <c r="I2" t="n">
-        <v>145764300.8558404</v>
+        <v>-15193339.49657957</v>
       </c>
       <c r="J2" t="n">
-        <v>251094288.5113368</v>
+        <v>-17614980.60924773</v>
       </c>
       <c r="K2" t="n">
-        <v>92065990.78079167</v>
+        <v>-7431074.834066893</v>
       </c>
       <c r="L2" t="n">
-        <v>6723355.420845656</v>
+        <v>255753.5525194673</v>
       </c>
       <c r="M2" t="n">
-        <v>73218134.28114612</v>
+        <v>-5241446.658168982</v>
       </c>
       <c r="N2" t="n">
-        <v>13430001.33755424</v>
+        <v>2122477.110369295</v>
       </c>
       <c r="O2" t="n">
-        <v>88752491.04570626</v>
+        <v>11006798.04122535</v>
       </c>
       <c r="P2" t="n">
-        <v>25285874.86387409</v>
+        <v>3318335.687626545</v>
       </c>
       <c r="Q2" t="n">
-        <v>49897348.18053329</v>
+        <v>6734751.546694467</v>
       </c>
       <c r="R2" t="n">
-        <v>36243944.97395997</v>
+        <v>-3762138.660737757</v>
       </c>
       <c r="S2" t="n">
-        <v>-7.582579447956705e-05</v>
+        <v>0.05481346709289617</v>
       </c>
       <c r="T2" t="n">
-        <v>3.779943745990666e-05</v>
+        <v>1.000015440468033</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01269993039409145</v>
+        <v>0.9741663155013598</v>
       </c>
       <c r="V2" t="n">
-        <v>7655273.781004032</v>
+        <v>-557631.4142327461</v>
       </c>
     </row>
     <row r="3">
@@ -571,67 +571,67 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15.99787159206351</v>
+        <v>22.13597548430484</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02489550256318845</v>
+        <v>0.02344009951816289</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3678986677566724</v>
+        <v>3.335268450436258</v>
       </c>
       <c r="E3" t="n">
-        <v>-16561.71700059967</v>
+        <v>3065.852859583849</v>
       </c>
       <c r="F3" t="n">
-        <v>-238137.056164247</v>
+        <v>592642.9443203296</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3134219359061663</v>
+        <v>0.1722597317872389</v>
       </c>
       <c r="H3" t="n">
-        <v>43230972.26577676</v>
+        <v>127364034.8896078</v>
       </c>
       <c r="I3" t="n">
-        <v>67975607.40837109</v>
+        <v>145764300.8558404</v>
       </c>
       <c r="J3" t="n">
-        <v>94327797.59160459</v>
+        <v>251094288.5113367</v>
       </c>
       <c r="K3" t="n">
-        <v>41782798.72548027</v>
+        <v>92065990.78079167</v>
       </c>
       <c r="L3" t="n">
-        <v>657122.335973373</v>
+        <v>6723355.420845656</v>
       </c>
       <c r="M3" t="n">
-        <v>29271036.61069721</v>
+        <v>73218134.28114611</v>
       </c>
       <c r="N3" t="n">
-        <v>-150550.0180794467</v>
+        <v>13430001.33755424</v>
       </c>
       <c r="O3" t="n">
-        <v>1468355.000662761</v>
+        <v>88752491.04570623</v>
       </c>
       <c r="P3" t="n">
-        <v>-2538424.031841083</v>
+        <v>25285874.86387409</v>
       </c>
       <c r="Q3" t="n">
-        <v>4575788.088515549</v>
+        <v>49897348.18053328</v>
       </c>
       <c r="R3" t="n">
-        <v>15756129.55339028</v>
+        <v>36243944.97395997</v>
       </c>
       <c r="S3" t="n">
-        <v>0.07007048990549906</v>
+        <v>-7.582579447956705e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9999269308189485</v>
+        <v>3.779943745990666e-05</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01967338341087899</v>
+        <v>0.01269993039409156</v>
       </c>
       <c r="V3" t="n">
-        <v>3841412.111386775</v>
+        <v>7655273.78100403</v>
       </c>
     </row>
     <row r="4">
@@ -639,67 +639,67 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>18.15836302198632</v>
+        <v>25.23176688546787</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4218852189891472</v>
+        <v>0.4328589860839256</v>
       </c>
       <c r="D4" t="n">
-        <v>23.48472422562521</v>
+        <v>26.14513244290981</v>
       </c>
       <c r="E4" t="n">
-        <v>37366.40651137198</v>
+        <v>56657.623587151</v>
       </c>
       <c r="F4" t="n">
-        <v>216169.6182453737</v>
+        <v>966994.3703504544</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2987037897921342</v>
+        <v>0.1746461450170992</v>
       </c>
       <c r="H4" t="n">
-        <v>-5347765.172345432</v>
+        <v>31666970.92174593</v>
       </c>
       <c r="I4" t="n">
-        <v>-15193339.49657958</v>
+        <v>28387663.54873613</v>
       </c>
       <c r="J4" t="n">
-        <v>-17614980.60924773</v>
+        <v>53386269.30801577</v>
       </c>
       <c r="K4" t="n">
-        <v>-7431074.834066893</v>
+        <v>22142099.83635788</v>
       </c>
       <c r="L4" t="n">
-        <v>255753.5525194673</v>
+        <v>1887876.373088774</v>
       </c>
       <c r="M4" t="n">
-        <v>-5241446.658168982</v>
+        <v>15965643.20524856</v>
       </c>
       <c r="N4" t="n">
-        <v>2122477.110369295</v>
+        <v>6233887.711071748</v>
       </c>
       <c r="O4" t="n">
-        <v>11006798.04122535</v>
+        <v>45994182.74405769</v>
       </c>
       <c r="P4" t="n">
-        <v>3318335.687626545</v>
+        <v>14784249.17676339</v>
       </c>
       <c r="Q4" t="n">
-        <v>6734751.546694467</v>
+        <v>19679202.09118729</v>
       </c>
       <c r="R4" t="n">
-        <v>-3762138.660737757</v>
+        <v>9545781.679153355</v>
       </c>
       <c r="S4" t="n">
-        <v>0.05481346709289617</v>
+        <v>1.301686913865452e-05</v>
       </c>
       <c r="T4" t="n">
-        <v>1.000015440468033</v>
+        <v>-5.343763101517407e-06</v>
       </c>
       <c r="U4" t="n">
-        <v>0.9741663155013598</v>
+        <v>0.9753785869244693</v>
       </c>
       <c r="V4" t="n">
-        <v>-557631.4142327461</v>
+        <v>1400786.164035065</v>
       </c>
     </row>
     <row r="5">
@@ -707,67 +707,67 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33.53277187487174</v>
+        <v>15.99787159206351</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2817436454310575</v>
+        <v>0.0248955025631884</v>
       </c>
       <c r="D5" t="n">
-        <v>15.93609287531679</v>
+        <v>0.3678986677566696</v>
       </c>
       <c r="E5" t="n">
-        <v>64337.35640522652</v>
+        <v>-16561.71700059968</v>
       </c>
       <c r="F5" t="n">
-        <v>524299.6130528904</v>
+        <v>-238137.056164247</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2722960113536018</v>
+        <v>0.3134219359061663</v>
       </c>
       <c r="H5" t="n">
-        <v>267132290.8227382</v>
+        <v>43230972.26577678</v>
       </c>
       <c r="I5" t="n">
-        <v>164730813.6742892</v>
+        <v>67975607.40837112</v>
       </c>
       <c r="J5" t="n">
-        <v>467129441.9900973</v>
+        <v>94327797.59160461</v>
       </c>
       <c r="K5" t="n">
-        <v>118985720.9563987</v>
+        <v>41782798.72548027</v>
       </c>
       <c r="L5" t="n">
-        <v>37549116.94441313</v>
+        <v>657122.3359733743</v>
       </c>
       <c r="M5" t="n">
-        <v>93043467.10795297</v>
+        <v>29271036.61069722</v>
       </c>
       <c r="N5" t="n">
-        <v>90217852.83394229</v>
+        <v>-150550.0180794444</v>
       </c>
       <c r="O5" t="n">
-        <v>495875486.8179197</v>
+        <v>1468355.000662783</v>
       </c>
       <c r="P5" t="n">
-        <v>166399581.3852738</v>
+        <v>-2538424.031841083</v>
       </c>
       <c r="Q5" t="n">
-        <v>303120060.8203178</v>
+        <v>4575788.088515564</v>
       </c>
       <c r="R5" t="n">
-        <v>90931164.83809412</v>
+        <v>15756129.55339028</v>
       </c>
       <c r="S5" t="n">
-        <v>1.000035440435156</v>
+        <v>0.07007048990549906</v>
       </c>
       <c r="T5" t="n">
-        <v>-1.556077648146026e-05</v>
+        <v>0.9999269308189485</v>
       </c>
       <c r="U5" t="n">
-        <v>0.6170598530450847</v>
+        <v>0.01967338341087888</v>
       </c>
       <c r="V5" t="n">
-        <v>30105069.94839482</v>
+        <v>3841412.111386776</v>
       </c>
     </row>
     <row r="6">
@@ -775,67 +775,67 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>25.23176688546787</v>
+        <v>33.53277187487174</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4328589860839256</v>
+        <v>0.2817436454310575</v>
       </c>
       <c r="D6" t="n">
-        <v>26.14513244290981</v>
+        <v>15.93609287531679</v>
       </c>
       <c r="E6" t="n">
-        <v>56657.623587151</v>
+        <v>64337.35640522652</v>
       </c>
       <c r="F6" t="n">
-        <v>966994.3703504544</v>
+        <v>524299.6130528903</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1746461450170992</v>
+        <v>0.2722960113536018</v>
       </c>
       <c r="H6" t="n">
-        <v>31666970.92174592</v>
+        <v>267132290.8227382</v>
       </c>
       <c r="I6" t="n">
-        <v>28387663.54873612</v>
+        <v>164730813.6742892</v>
       </c>
       <c r="J6" t="n">
-        <v>53386269.30801576</v>
+        <v>467129441.9900973</v>
       </c>
       <c r="K6" t="n">
-        <v>22142099.83635788</v>
+        <v>118985720.9563987</v>
       </c>
       <c r="L6" t="n">
-        <v>1887876.373088773</v>
+        <v>37549116.94441313</v>
       </c>
       <c r="M6" t="n">
-        <v>15965643.20524856</v>
+        <v>93043467.10795297</v>
       </c>
       <c r="N6" t="n">
-        <v>6233887.711071747</v>
+        <v>90217852.83394231</v>
       </c>
       <c r="O6" t="n">
-        <v>45994182.74405769</v>
+        <v>495875486.8179197</v>
       </c>
       <c r="P6" t="n">
-        <v>14784249.17676339</v>
+        <v>166399581.3852738</v>
       </c>
       <c r="Q6" t="n">
-        <v>19679202.09118728</v>
+        <v>303120060.8203178</v>
       </c>
       <c r="R6" t="n">
-        <v>9545781.679153355</v>
+        <v>90931164.83809413</v>
       </c>
       <c r="S6" t="n">
-        <v>1.301686913865452e-05</v>
+        <v>1.000035440435156</v>
       </c>
       <c r="T6" t="n">
-        <v>-5.343763101461896e-06</v>
+        <v>-1.556077648146026e-05</v>
       </c>
       <c r="U6" t="n">
-        <v>0.9753785869244693</v>
+        <v>0.6170598530450847</v>
       </c>
       <c r="V6" t="n">
-        <v>1400786.164035064</v>
+        <v>30105069.94839482</v>
       </c>
     </row>
   </sheetData>

--- a/Kmeans_centroides.xlsx
+++ b/Kmeans_centroides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,88 +482,58 @@
       <c r="Q1" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="n">
-        <v>20</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>18.15836302198632</v>
+        <v>25.625</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4218852189891472</v>
+        <v>0.4328583470943682</v>
       </c>
       <c r="D2" t="n">
-        <v>23.48472422562521</v>
+        <v>56667.94964285715</v>
       </c>
       <c r="E2" t="n">
-        <v>37366.40651137198</v>
+        <v>0.1746259552442166</v>
       </c>
       <c r="F2" t="n">
-        <v>216169.6182453737</v>
+        <v>27395834.11126375</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2987037897921342</v>
+        <v>11064439.35714285</v>
       </c>
       <c r="H2" t="n">
-        <v>-5347765.172345432</v>
+        <v>2170107.590659338</v>
       </c>
       <c r="I2" t="n">
-        <v>-15193339.49657957</v>
+        <v>6464901.071428581</v>
       </c>
       <c r="J2" t="n">
-        <v>-17614980.60924773</v>
+        <v>6481454.769230771</v>
       </c>
       <c r="K2" t="n">
-        <v>-7431074.834066893</v>
+        <v>44297884.23489012</v>
       </c>
       <c r="L2" t="n">
-        <v>255753.5525194673</v>
+        <v>20998291.60576923</v>
       </c>
       <c r="M2" t="n">
-        <v>-5241446.658168982</v>
+        <v>8278686.407967032</v>
       </c>
       <c r="N2" t="n">
-        <v>2122477.110369295</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>11006798.04122535</v>
+        <v>-3.885780586188048e-16</v>
       </c>
       <c r="P2" t="n">
-        <v>3318335.687626545</v>
+        <v>0.9753653671203297</v>
       </c>
       <c r="Q2" t="n">
-        <v>6734751.546694467</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-3762138.660737757</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.05481346709289617</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.000015440468033</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.9741663155013598</v>
-      </c>
-      <c r="V2" t="n">
-        <v>-557631.4142327461</v>
+        <v>2133818.541208791</v>
       </c>
     </row>
     <row r="3">
@@ -571,67 +541,52 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22.13597548430484</v>
+        <v>17.66318537859008</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02344009951816289</v>
+        <v>0.4219307300015666</v>
       </c>
       <c r="D3" t="n">
-        <v>3.335268450436258</v>
+        <v>32919.11493472584</v>
       </c>
       <c r="E3" t="n">
-        <v>3065.852859583849</v>
+        <v>0.2987207321965191</v>
       </c>
       <c r="F3" t="n">
-        <v>592642.9443203296</v>
+        <v>5621227.138381186</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1722597317872389</v>
+        <v>2744010.389033944</v>
       </c>
       <c r="H3" t="n">
-        <v>127364034.8896078</v>
+        <v>348103.7780678813</v>
       </c>
       <c r="I3" t="n">
-        <v>145764300.8558404</v>
+        <v>1929939.373368138</v>
       </c>
       <c r="J3" t="n">
-        <v>251094288.5113367</v>
+        <v>1764899.924281987</v>
       </c>
       <c r="K3" t="n">
-        <v>92065990.78079167</v>
+        <v>9527033.018276762</v>
       </c>
       <c r="L3" t="n">
-        <v>6723355.420845656</v>
+        <v>7011301.746736301</v>
       </c>
       <c r="M3" t="n">
-        <v>73218134.28114611</v>
+        <v>317285.4281984341</v>
       </c>
       <c r="N3" t="n">
-        <v>13430001.33755424</v>
+        <v>0.05483028720626633</v>
       </c>
       <c r="O3" t="n">
-        <v>88752491.04570623</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="P3" t="n">
-        <v>25285874.86387409</v>
+        <v>0.9742028868039163</v>
       </c>
       <c r="Q3" t="n">
-        <v>49897348.18053328</v>
-      </c>
-      <c r="R3" t="n">
-        <v>36243944.97395997</v>
-      </c>
-      <c r="S3" t="n">
-        <v>-7.582579447956705e-05</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.779943745990666e-05</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.01269993039409156</v>
-      </c>
-      <c r="V3" t="n">
-        <v>7655273.78100403</v>
+        <v>408135.7415143606</v>
       </c>
     </row>
     <row r="4">
@@ -639,67 +594,52 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25.23176688546787</v>
+        <v>19.21052631578947</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4328589860839256</v>
+        <v>0.02343665358157904</v>
       </c>
       <c r="D4" t="n">
-        <v>26.14513244290981</v>
+        <v>5083.730526315785</v>
       </c>
       <c r="E4" t="n">
-        <v>56657.623587151</v>
+        <v>0.1723737409561639</v>
       </c>
       <c r="F4" t="n">
-        <v>966994.3703504544</v>
+        <v>381493629.4736841</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1746461450170992</v>
+        <v>142103609.5736842</v>
       </c>
       <c r="H4" t="n">
-        <v>31666970.92174593</v>
+        <v>6054553.605263159</v>
       </c>
       <c r="I4" t="n">
-        <v>28387663.54873613</v>
+        <v>120635148.8894737</v>
       </c>
       <c r="J4" t="n">
-        <v>53386269.30801577</v>
+        <v>12246031.42105263</v>
       </c>
       <c r="K4" t="n">
-        <v>22142099.83635788</v>
+        <v>94347833.37368421</v>
       </c>
       <c r="L4" t="n">
-        <v>1887876.373088774</v>
+        <v>43878223.25789474</v>
       </c>
       <c r="M4" t="n">
-        <v>15965643.20524856</v>
+        <v>38965449.3631579</v>
       </c>
       <c r="N4" t="n">
-        <v>6233887.711071748</v>
+        <v>1.387778780781446e-17</v>
       </c>
       <c r="O4" t="n">
-        <v>45994182.74405769</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>14784249.17676339</v>
+        <v>0.01274946923263176</v>
       </c>
       <c r="Q4" t="n">
-        <v>19679202.09118729</v>
-      </c>
-      <c r="R4" t="n">
-        <v>9545781.679153355</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.301686913865452e-05</v>
-      </c>
-      <c r="T4" t="n">
-        <v>-5.343763101517407e-06</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.9753785869244693</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1400786.164035065</v>
+        <v>3309578.363157895</v>
       </c>
     </row>
     <row r="5">
@@ -707,67 +647,52 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15.99787159206351</v>
+        <v>35.07377049180328</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0248955025631884</v>
+        <v>0.2817630285114754</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3678986677566696</v>
+        <v>60234.81573770491</v>
       </c>
       <c r="E5" t="n">
-        <v>-16561.71700059968</v>
+        <v>0.2722537669568291</v>
       </c>
       <c r="F5" t="n">
-        <v>-238137.056164247</v>
+        <v>419858300.0245903</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3134219359061663</v>
+        <v>107297063.0573771</v>
       </c>
       <c r="H5" t="n">
-        <v>43230972.26577678</v>
+        <v>36899907.89344263</v>
       </c>
       <c r="I5" t="n">
-        <v>67975607.40837112</v>
+        <v>76126599.90163934</v>
       </c>
       <c r="J5" t="n">
-        <v>94327797.59160461</v>
+        <v>90588146.71311477</v>
       </c>
       <c r="K5" t="n">
-        <v>41782798.72548027</v>
+        <v>497368760.032787</v>
       </c>
       <c r="L5" t="n">
-        <v>657122.3359733743</v>
+        <v>304690710.5327868</v>
       </c>
       <c r="M5" t="n">
-        <v>29271036.61069722</v>
+        <v>94191042.10655737</v>
       </c>
       <c r="N5" t="n">
-        <v>-150550.0180794444</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="O5" t="n">
-        <v>1468355.000662783</v>
+        <v>-1.665334536937735e-16</v>
       </c>
       <c r="P5" t="n">
-        <v>-2538424.031841083</v>
+        <v>0.6170663056491803</v>
       </c>
       <c r="Q5" t="n">
-        <v>4575788.088515564</v>
-      </c>
-      <c r="R5" t="n">
-        <v>15756129.55339028</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.07007048990549906</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.9999269308189485</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.01967338341087888</v>
-      </c>
-      <c r="V5" t="n">
-        <v>3841412.111386776</v>
+        <v>32487912.86885246</v>
       </c>
     </row>
     <row r="6">
@@ -775,67 +700,52 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>33.53277187487174</v>
+        <v>18.71</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2817436454310575</v>
+        <v>0.02470874715100008</v>
       </c>
       <c r="D6" t="n">
-        <v>15.93609287531679</v>
+        <v>1567.368099999994</v>
       </c>
       <c r="E6" t="n">
-        <v>64337.35640522652</v>
+        <v>0.3133389487870619</v>
       </c>
       <c r="F6" t="n">
-        <v>524299.6130528903</v>
+        <v>4455535.520000008</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2722960113536018</v>
+        <v>2646277.540000008</v>
       </c>
       <c r="H6" t="n">
-        <v>267132290.8227382</v>
+        <v>311536.2000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>164730813.6742892</v>
+        <v>1516281.08</v>
       </c>
       <c r="J6" t="n">
-        <v>467129441.9900973</v>
+        <v>1214466.730000002</v>
       </c>
       <c r="K6" t="n">
-        <v>118985720.9563987</v>
+        <v>7031964.439999988</v>
       </c>
       <c r="L6" t="n">
-        <v>37549116.94441313</v>
+        <v>3433773.859999988</v>
       </c>
       <c r="M6" t="n">
-        <v>93043467.10795297</v>
+        <v>208480.2600000011</v>
       </c>
       <c r="N6" t="n">
-        <v>90217852.83394231</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O6" t="n">
-        <v>495875486.8179197</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>166399581.3852738</v>
+        <v>0.01952755952599983</v>
       </c>
       <c r="Q6" t="n">
-        <v>303120060.8203178</v>
-      </c>
-      <c r="R6" t="n">
-        <v>90931164.83809413</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.000035440435156</v>
-      </c>
-      <c r="T6" t="n">
-        <v>-1.556077648146026e-05</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.6170598530450847</v>
-      </c>
-      <c r="V6" t="n">
-        <v>30105069.94839482</v>
+        <v>155801.1300000004</v>
       </c>
     </row>
   </sheetData>

--- a/Kmeans_centroides.xlsx
+++ b/Kmeans_centroides.xlsx
@@ -488,52 +488,52 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>25.625</v>
+        <v>17.66318537859008</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4328583470943682</v>
+        <v>0.4219307300015666</v>
       </c>
       <c r="D2" t="n">
-        <v>56667.94964285715</v>
+        <v>32919.11493472584</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1746259552442166</v>
+        <v>0.2987207321965191</v>
       </c>
       <c r="F2" t="n">
-        <v>27395834.11126375</v>
+        <v>5621227.138381174</v>
       </c>
       <c r="G2" t="n">
-        <v>11064439.35714285</v>
+        <v>2744010.389033944</v>
       </c>
       <c r="H2" t="n">
-        <v>2170107.590659338</v>
+        <v>348103.7780678813</v>
       </c>
       <c r="I2" t="n">
-        <v>6464901.071428581</v>
+        <v>1929939.373368142</v>
       </c>
       <c r="J2" t="n">
-        <v>6481454.769230771</v>
+        <v>1764899.924281987</v>
       </c>
       <c r="K2" t="n">
-        <v>44297884.23489012</v>
+        <v>9527033.018276751</v>
       </c>
       <c r="L2" t="n">
-        <v>20998291.60576923</v>
+        <v>7011301.746736301</v>
       </c>
       <c r="M2" t="n">
-        <v>8278686.407967032</v>
+        <v>317285.4281984341</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>0.05483028720626634</v>
       </c>
       <c r="O2" t="n">
-        <v>-3.885780586188048e-16</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="P2" t="n">
-        <v>0.9753653671203297</v>
+        <v>0.9742028868039163</v>
       </c>
       <c r="Q2" t="n">
-        <v>2133818.541208791</v>
+        <v>408135.7415143606</v>
       </c>
     </row>
     <row r="3">
@@ -541,52 +541,52 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17.66318537859008</v>
+        <v>19.21052631578947</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4219307300015666</v>
+        <v>0.02343665358157904</v>
       </c>
       <c r="D3" t="n">
-        <v>32919.11493472584</v>
+        <v>5083.730526315785</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2987207321965191</v>
+        <v>0.1723737409561639</v>
       </c>
       <c r="F3" t="n">
-        <v>5621227.138381186</v>
+        <v>381493629.4736841</v>
       </c>
       <c r="G3" t="n">
-        <v>2744010.389033944</v>
+        <v>142103609.5736842</v>
       </c>
       <c r="H3" t="n">
-        <v>348103.7780678813</v>
+        <v>6054553.605263159</v>
       </c>
       <c r="I3" t="n">
-        <v>1929939.373368138</v>
+        <v>120635148.8894737</v>
       </c>
       <c r="J3" t="n">
-        <v>1764899.924281987</v>
+        <v>12246031.42105263</v>
       </c>
       <c r="K3" t="n">
-        <v>9527033.018276762</v>
+        <v>94347833.37368421</v>
       </c>
       <c r="L3" t="n">
-        <v>7011301.746736301</v>
+        <v>43878223.25789474</v>
       </c>
       <c r="M3" t="n">
-        <v>317285.4281984341</v>
+        <v>38965449.36315789</v>
       </c>
       <c r="N3" t="n">
-        <v>0.05483028720626633</v>
+        <v>1.387778780781446e-17</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9742028868039163</v>
+        <v>0.01274946923263154</v>
       </c>
       <c r="Q3" t="n">
-        <v>408135.7415143606</v>
+        <v>3309578.363157895</v>
       </c>
     </row>
     <row r="4">
@@ -594,52 +594,52 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>19.21052631578947</v>
+        <v>25.625</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02343665358157904</v>
+        <v>0.4328583470943682</v>
       </c>
       <c r="D4" t="n">
-        <v>5083.730526315785</v>
+        <v>56667.94964285715</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1723737409561639</v>
+        <v>0.1746259552442166</v>
       </c>
       <c r="F4" t="n">
-        <v>381493629.4736841</v>
+        <v>27395834.11126375</v>
       </c>
       <c r="G4" t="n">
-        <v>142103609.5736842</v>
+        <v>11064439.35714285</v>
       </c>
       <c r="H4" t="n">
-        <v>6054553.605263159</v>
+        <v>2170107.590659339</v>
       </c>
       <c r="I4" t="n">
-        <v>120635148.8894737</v>
+        <v>6464901.071428581</v>
       </c>
       <c r="J4" t="n">
-        <v>12246031.42105263</v>
+        <v>6481454.769230771</v>
       </c>
       <c r="K4" t="n">
-        <v>94347833.37368421</v>
+        <v>44297884.23489011</v>
       </c>
       <c r="L4" t="n">
-        <v>43878223.25789474</v>
+        <v>20998291.60576922</v>
       </c>
       <c r="M4" t="n">
-        <v>38965449.3631579</v>
+        <v>8278686.407967032</v>
       </c>
       <c r="N4" t="n">
         <v>1.387778780781446e-17</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-3.885780586188048e-16</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01274946923263176</v>
+        <v>0.9753653671203298</v>
       </c>
       <c r="Q4" t="n">
-        <v>3309578.363157895</v>
+        <v>2133818.541208791</v>
       </c>
     </row>
     <row r="5">
@@ -659,13 +659,13 @@
         <v>0.2722537669568291</v>
       </c>
       <c r="F5" t="n">
-        <v>419858300.0245903</v>
+        <v>419858300.0245902</v>
       </c>
       <c r="G5" t="n">
         <v>107297063.0573771</v>
       </c>
       <c r="H5" t="n">
-        <v>36899907.89344263</v>
+        <v>36899907.89344262</v>
       </c>
       <c r="I5" t="n">
         <v>76126599.90163934</v>
@@ -703,10 +703,10 @@
         <v>18.71</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02470874715100008</v>
+        <v>0.02470874715100002</v>
       </c>
       <c r="D6" t="n">
-        <v>1567.368099999994</v>
+        <v>1567.368099999984</v>
       </c>
       <c r="E6" t="n">
         <v>0.3133389487870619</v>
@@ -724,25 +724,25 @@
         <v>1516281.08</v>
       </c>
       <c r="J6" t="n">
-        <v>1214466.730000002</v>
+        <v>1214466.73</v>
       </c>
       <c r="K6" t="n">
-        <v>7031964.439999988</v>
+        <v>7031964.439999999</v>
       </c>
       <c r="L6" t="n">
-        <v>3433773.859999988</v>
+        <v>3433773.859999995</v>
       </c>
       <c r="M6" t="n">
         <v>208480.2600000011</v>
       </c>
       <c r="N6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.07000000000000002</v>
       </c>
       <c r="O6" t="n">
         <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01952755952599983</v>
+        <v>0.01952755952600005</v>
       </c>
       <c r="Q6" t="n">
         <v>155801.1300000004</v>

--- a/Kmeans_centroides.xlsx
+++ b/Kmeans_centroides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,67 +473,49 @@
       <c r="N1" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="n">
-        <v>15</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17.66318537859008</v>
+        <v>19.21212121212121</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4219307300015666</v>
+        <v>0.5552564494199496</v>
       </c>
       <c r="D2" t="n">
-        <v>32919.11493472584</v>
+        <v>59214.84803030305</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2987207321965191</v>
+        <v>0.1864653951918102</v>
       </c>
       <c r="F2" t="n">
-        <v>5621227.138381174</v>
+        <v>41363926.14393939</v>
       </c>
       <c r="G2" t="n">
-        <v>2744010.389033944</v>
+        <v>18294313.31818183</v>
       </c>
       <c r="H2" t="n">
-        <v>348103.7780678813</v>
+        <v>2533204.454545455</v>
       </c>
       <c r="I2" t="n">
-        <v>1929939.373368142</v>
+        <v>8355144.002525249</v>
       </c>
       <c r="J2" t="n">
-        <v>1764899.924281987</v>
+        <v>9778726.790404042</v>
       </c>
       <c r="K2" t="n">
-        <v>9527033.018276751</v>
+        <v>59998453.03787877</v>
       </c>
       <c r="L2" t="n">
-        <v>7011301.746736301</v>
+        <v>27993092.96464647</v>
       </c>
       <c r="M2" t="n">
-        <v>317285.4281984341</v>
+        <v>9505950.318181816</v>
       </c>
       <c r="N2" t="n">
-        <v>0.05483028720626634</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.9999999999999996</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.9742028868039163</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>408135.7415143606</v>
+        <v>2165161.126262626</v>
       </c>
     </row>
     <row r="3">
@@ -541,52 +523,43 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19.21052631578947</v>
+        <v>15.19942196531792</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02343665358157904</v>
+        <v>0.01120357142485551</v>
       </c>
       <c r="D3" t="n">
-        <v>5083.730526315785</v>
+        <v>526.2880346821008</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1723737409561639</v>
+        <v>0.2196239658476543</v>
       </c>
       <c r="F3" t="n">
-        <v>381493629.4736841</v>
+        <v>226177715.4046243</v>
       </c>
       <c r="G3" t="n">
-        <v>142103609.5736842</v>
+        <v>84199586.58381504</v>
       </c>
       <c r="H3" t="n">
-        <v>6054553.605263159</v>
+        <v>3095616.609826589</v>
       </c>
       <c r="I3" t="n">
-        <v>120635148.8894737</v>
+        <v>69326491.66763006</v>
       </c>
       <c r="J3" t="n">
-        <v>12246031.42105263</v>
+        <v>11537253.34104047</v>
       </c>
       <c r="K3" t="n">
-        <v>94347833.37368421</v>
+        <v>81024658.95375723</v>
       </c>
       <c r="L3" t="n">
-        <v>43878223.25789474</v>
+        <v>42295697.57514451</v>
       </c>
       <c r="M3" t="n">
-        <v>38965449.36315789</v>
+        <v>25174233.80924857</v>
       </c>
       <c r="N3" t="n">
-        <v>1.387778780781446e-17</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.01274946923263154</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3309578.363157895</v>
+        <v>7994949.638728325</v>
       </c>
     </row>
     <row r="4">
@@ -594,52 +567,43 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25.625</v>
+        <v>31.15384615384615</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4328583470943682</v>
+        <v>0.3579130708320879</v>
       </c>
       <c r="D4" t="n">
-        <v>56667.94964285715</v>
+        <v>61349.77815384616</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1746259552442166</v>
+        <v>0.1436154142353603</v>
       </c>
       <c r="F4" t="n">
-        <v>27395834.11126375</v>
+        <v>25039659.0021978</v>
       </c>
       <c r="G4" t="n">
-        <v>11064439.35714285</v>
+        <v>11198681.82857142</v>
       </c>
       <c r="H4" t="n">
-        <v>2170107.590659339</v>
+        <v>1839252.84175824</v>
       </c>
       <c r="I4" t="n">
-        <v>6464901.071428581</v>
+        <v>7214803.780219774</v>
       </c>
       <c r="J4" t="n">
-        <v>6481454.769230771</v>
+        <v>6849537.942857143</v>
       </c>
       <c r="K4" t="n">
-        <v>44297884.23489011</v>
+        <v>44962868.74505495</v>
       </c>
       <c r="L4" t="n">
-        <v>20998291.60576922</v>
+        <v>23044338.63076924</v>
       </c>
       <c r="M4" t="n">
-        <v>8278686.407967032</v>
+        <v>5728596.173626371</v>
       </c>
       <c r="N4" t="n">
-        <v>1.387778780781446e-17</v>
-      </c>
-      <c r="O4" t="n">
-        <v>-3.885780586188048e-16</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.9753653671203298</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2133818.541208791</v>
+        <v>2292762.384615385</v>
       </c>
     </row>
     <row r="5">
@@ -647,52 +611,43 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35.07377049180328</v>
+        <v>24.53627760252366</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2817630285114754</v>
+        <v>0.4145452294555205</v>
       </c>
       <c r="D5" t="n">
-        <v>60234.81573770491</v>
+        <v>34032.35630914826</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2722537669568291</v>
+        <v>0.3820467744266923</v>
       </c>
       <c r="F5" t="n">
-        <v>419858300.0245902</v>
+        <v>10824713.7665615</v>
       </c>
       <c r="G5" t="n">
-        <v>107297063.0573771</v>
+        <v>3217269.558359606</v>
       </c>
       <c r="H5" t="n">
-        <v>36899907.89344262</v>
+        <v>1143172.905362775</v>
       </c>
       <c r="I5" t="n">
-        <v>76126599.90163934</v>
+        <v>2505522.028391168</v>
       </c>
       <c r="J5" t="n">
-        <v>90588146.71311477</v>
+        <v>2482773.047318616</v>
       </c>
       <c r="K5" t="n">
-        <v>497368760.032787</v>
+        <v>22643899.67823344</v>
       </c>
       <c r="L5" t="n">
-        <v>304690710.5327868</v>
+        <v>8617533.425867518</v>
       </c>
       <c r="M5" t="n">
-        <v>94191042.10655737</v>
+        <v>7361412.87066246</v>
       </c>
       <c r="N5" t="n">
-        <v>0.9999999999999999</v>
-      </c>
-      <c r="O5" t="n">
-        <v>-1.665334536937735e-16</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.6170663056491803</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>32487912.86885246</v>
+        <v>832695.7760252364</v>
       </c>
     </row>
     <row r="6">
@@ -700,52 +655,43 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>18.71</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02470874715100002</v>
+        <v>5.551115123125783e-17</v>
       </c>
       <c r="D6" t="n">
-        <v>1567.368099999984</v>
+        <v>4.920813756470466e-12</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3133389487870619</v>
+        <v>0.2837301587301587</v>
       </c>
       <c r="F6" t="n">
-        <v>4455535.520000008</v>
+        <v>4087452176.555556</v>
       </c>
       <c r="G6" t="n">
-        <v>2646277.540000008</v>
+        <v>774171486.9999998</v>
       </c>
       <c r="H6" t="n">
-        <v>311536.2000000001</v>
+        <v>458110163.9999999</v>
       </c>
       <c r="I6" t="n">
-        <v>1516281.08</v>
+        <v>714752999.9999999</v>
       </c>
       <c r="J6" t="n">
-        <v>1214466.73</v>
+        <v>791839777.7777779</v>
       </c>
       <c r="K6" t="n">
-        <v>7031964.439999999</v>
+        <v>3975094000</v>
       </c>
       <c r="L6" t="n">
-        <v>3433773.859999995</v>
+        <v>2765342555.555555</v>
       </c>
       <c r="M6" t="n">
-        <v>208480.2600000011</v>
+        <v>849919355.888889</v>
       </c>
       <c r="N6" t="n">
-        <v>0.07000000000000002</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.01952755952600005</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>155801.1300000004</v>
+        <v>154092603.5555555</v>
       </c>
     </row>
   </sheetData>

--- a/Kmeans_centroides.xlsx
+++ b/Kmeans_centroides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,49 +473,103 @@
       <c r="N1" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="O1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>19.21212121212121</v>
+        <v>25.21922278635397</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5552564494199496</v>
+        <v>0.4329822424869088</v>
       </c>
       <c r="D2" t="n">
-        <v>59214.84803030305</v>
+        <v>0.001536655646740571</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1864653951918102</v>
+        <v>26.10526362258366</v>
       </c>
       <c r="F2" t="n">
-        <v>41363926.14393939</v>
+        <v>56345.61840060075</v>
       </c>
       <c r="G2" t="n">
-        <v>18294313.31818183</v>
+        <v>0.1745730871630415</v>
       </c>
       <c r="H2" t="n">
-        <v>2533204.454545455</v>
+        <v>22526279.37203535</v>
       </c>
       <c r="I2" t="n">
-        <v>8355144.002525249</v>
+        <v>21687448.43879573</v>
       </c>
       <c r="J2" t="n">
-        <v>9778726.790404042</v>
+        <v>36760253.73168454</v>
       </c>
       <c r="K2" t="n">
-        <v>59998453.03787877</v>
+        <v>18359577.84980405</v>
       </c>
       <c r="L2" t="n">
-        <v>27993092.96464647</v>
+        <v>881821.4790796734</v>
       </c>
       <c r="M2" t="n">
-        <v>9505950.318181816</v>
+        <v>11876927.07876197</v>
       </c>
       <c r="N2" t="n">
-        <v>2165161.126262626</v>
+        <v>4099455.740871071</v>
+      </c>
+      <c r="O2" t="n">
+        <v>34341546.27560756</v>
+      </c>
+      <c r="P2" t="n">
+        <v>11057179.57014362</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>12435785.1097479</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2003.894850194406</v>
+      </c>
+      <c r="S2" t="n">
+        <v>8039036.130098689</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.0004261823285821309</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-5.17229195211022e-05</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.9751920589930496</v>
+      </c>
+      <c r="W2" t="n">
+        <v>998763.9735138718</v>
       </c>
     </row>
     <row r="3">
@@ -523,43 +577,70 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15.19942196531792</v>
+        <v>16.10695065309265</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01120357142485551</v>
+        <v>0.02382423481758389</v>
       </c>
       <c r="D3" t="n">
-        <v>526.2880346821008</v>
+        <v>-0.002635909357750252</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2196239658476543</v>
+        <v>0.7163067075161165</v>
       </c>
       <c r="F3" t="n">
-        <v>226177715.4046243</v>
+        <v>-13849.74233817151</v>
       </c>
       <c r="G3" t="n">
-        <v>84199586.58381504</v>
+        <v>0.3140925024536891</v>
       </c>
       <c r="H3" t="n">
-        <v>3095616.609826589</v>
+        <v>122840403.7140712</v>
       </c>
       <c r="I3" t="n">
-        <v>69326491.66763006</v>
+        <v>126296956.0752307</v>
       </c>
       <c r="J3" t="n">
-        <v>11537253.34104047</v>
+        <v>239131818.2563621</v>
       </c>
       <c r="K3" t="n">
-        <v>81024658.95375723</v>
+        <v>74722755.82840388</v>
       </c>
       <c r="L3" t="n">
-        <v>42295697.57514451</v>
+        <v>9431648.139029274</v>
       </c>
       <c r="M3" t="n">
-        <v>25174233.80924857</v>
+        <v>64851809.80431302</v>
       </c>
       <c r="N3" t="n">
-        <v>7994949.638728325</v>
+        <v>18464772.20508631</v>
+      </c>
+      <c r="O3" t="n">
+        <v>103079697.5251069</v>
+      </c>
+      <c r="P3" t="n">
+        <v>29965006.05652256</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>67749601.7619855</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2007.619118289</v>
+      </c>
+      <c r="S3" t="n">
+        <v>28889341.94035631</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.06643623751667567</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.00035258117854</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.02130477897978145</v>
+      </c>
+      <c r="W3" t="n">
+        <v>7342247.549237077</v>
       </c>
     </row>
     <row r="4">
@@ -567,43 +648,70 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31.15384615384615</v>
+        <v>22.20374183420869</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3579130708320879</v>
+        <v>0.02276596637489864</v>
       </c>
       <c r="D4" t="n">
-        <v>61349.77815384616</v>
+        <v>-0.002992150125784984</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1436154142353603</v>
+        <v>3.555442667105063</v>
       </c>
       <c r="F4" t="n">
-        <v>25039659.0021978</v>
+        <v>4785.182825899094</v>
       </c>
       <c r="G4" t="n">
-        <v>11198681.82857142</v>
+        <v>0.1726576820725324</v>
       </c>
       <c r="H4" t="n">
-        <v>1839252.84175824</v>
+        <v>177787620.3281091</v>
       </c>
       <c r="I4" t="n">
-        <v>7214803.780219774</v>
+        <v>182712262.2196205</v>
       </c>
       <c r="J4" t="n">
-        <v>6849537.942857143</v>
+        <v>342808615.1922579</v>
       </c>
       <c r="K4" t="n">
-        <v>44962868.74505495</v>
+        <v>112930511.272882</v>
       </c>
       <c r="L4" t="n">
-        <v>23044338.63076924</v>
+        <v>12277132.75996074</v>
       </c>
       <c r="M4" t="n">
-        <v>5728596.173626371</v>
+        <v>95763387.36874825</v>
       </c>
       <c r="N4" t="n">
-        <v>2292762.384615385</v>
+        <v>25213209.65245573</v>
+      </c>
+      <c r="O4" t="n">
+        <v>153073545.1498956</v>
+      </c>
+      <c r="P4" t="n">
+        <v>45859003.48872148</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>89885235.45791289</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2001.133665174528</v>
+      </c>
+      <c r="S4" t="n">
+        <v>44560062.54447249</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-0.002367516048503465</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.000301418502411166</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.01372615590033754</v>
+      </c>
+      <c r="W4" t="n">
+        <v>9873252.204376915</v>
       </c>
     </row>
     <row r="5">
@@ -611,43 +719,70 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>24.53627760252366</v>
+        <v>33.51571560734907</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4145452294555205</v>
+        <v>0.2819830894240447</v>
       </c>
       <c r="D5" t="n">
-        <v>34032.35630914826</v>
+        <v>0.02047659631463464</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3820467744266923</v>
+        <v>15.86262748290765</v>
       </c>
       <c r="F5" t="n">
-        <v>10824713.7665615</v>
+        <v>63712.61591500811</v>
       </c>
       <c r="G5" t="n">
-        <v>3217269.558359606</v>
+        <v>0.2721577363034633</v>
       </c>
       <c r="H5" t="n">
-        <v>1143172.905362775</v>
+        <v>248804089.0162922</v>
       </c>
       <c r="I5" t="n">
-        <v>2505522.028391168</v>
+        <v>151326936.4224679</v>
       </c>
       <c r="J5" t="n">
-        <v>2482773.047318616</v>
+        <v>433791149.5202806</v>
       </c>
       <c r="K5" t="n">
-        <v>22643899.67823344</v>
+        <v>111401686.1315326</v>
       </c>
       <c r="L5" t="n">
-        <v>8617533.425867518</v>
+        <v>35522847.61841943</v>
       </c>
       <c r="M5" t="n">
-        <v>7361412.87066246</v>
+        <v>84867571.95466</v>
       </c>
       <c r="N5" t="n">
-        <v>832695.7760252364</v>
+        <v>85918207.14506234</v>
+      </c>
+      <c r="O5" t="n">
+        <v>472414521.8217878</v>
+      </c>
+      <c r="P5" t="n">
+        <v>158892039.5583543</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>288529114.0746644</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2002.752378689687</v>
+      </c>
+      <c r="S5" t="n">
+        <v>87899946.95288275</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.0008820075889</v>
+      </c>
+      <c r="U5" t="n">
+        <v>-0.0001190536544344867</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.6166892822763081</v>
+      </c>
+      <c r="W5" t="n">
+        <v>29298806.21097578</v>
       </c>
     </row>
     <row r="6">
@@ -655,43 +790,70 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44.44444444444444</v>
+        <v>18.12554175882195</v>
       </c>
       <c r="C6" t="n">
-        <v>5.551115123125783e-17</v>
+        <v>0.4221887940368352</v>
       </c>
       <c r="D6" t="n">
-        <v>4.920813756470466e-12</v>
+        <v>0.0006560423458527826</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2837301587301587</v>
+        <v>23.38371475807516</v>
       </c>
       <c r="F6" t="n">
-        <v>4087452176.555556</v>
+        <v>36597.44556038638</v>
       </c>
       <c r="G6" t="n">
-        <v>774171486.9999998</v>
+        <v>0.2985142035386429</v>
       </c>
       <c r="H6" t="n">
-        <v>458110163.9999999</v>
+        <v>-27935128.90490137</v>
       </c>
       <c r="I6" t="n">
-        <v>714752999.9999999</v>
+        <v>-31744822.26693295</v>
       </c>
       <c r="J6" t="n">
-        <v>791839777.7777779</v>
+        <v>-58698826.8624173</v>
       </c>
       <c r="K6" t="n">
-        <v>3975094000</v>
+        <v>-16776574.43966644</v>
       </c>
       <c r="L6" t="n">
-        <v>2765342555.555555</v>
+        <v>-2232647.110999061</v>
       </c>
       <c r="M6" t="n">
-        <v>849919355.888889</v>
+        <v>-15339699.54908803</v>
       </c>
       <c r="N6" t="n">
-        <v>154092603.5555555</v>
+        <v>-3156683.604509045</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-17809853.27386748</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-5898402.356900777</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-11181114.99270893</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2009.836685760496</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-7487110.554696994</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.05584422620494629</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.9998946506473634</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.9737038600569399</v>
+      </c>
+      <c r="W6" t="n">
+        <v>-1551007.689849783</v>
       </c>
     </row>
   </sheetData>

--- a/Kmeans_centroides.xlsx
+++ b/Kmeans_centroides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,82 +494,70 @@
       <c r="U1" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="n">
-        <v>21</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>25.21922278635397</v>
+        <v>0.02622824974411464</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4329822424869088</v>
+        <v>0.4328583470943682</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001536655646740571</v>
+        <v>0.01648779569340317</v>
       </c>
       <c r="E2" t="n">
-        <v>26.10526362258366</v>
+        <v>0.01997702563964653</v>
       </c>
       <c r="F2" t="n">
-        <v>56345.61840060075</v>
+        <v>0.2642987430723279</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1745730871630415</v>
+        <v>0.0006673188705078714</v>
       </c>
       <c r="H2" t="n">
-        <v>22526279.37203535</v>
+        <v>0.000416228327143208</v>
       </c>
       <c r="I2" t="n">
-        <v>21687448.43879573</v>
+        <v>0.0004997096885690213</v>
       </c>
       <c r="J2" t="n">
-        <v>36760253.73168454</v>
+        <v>0.01508651238521397</v>
       </c>
       <c r="K2" t="n">
-        <v>18359577.84980405</v>
+        <v>0.002930077455497366</v>
       </c>
       <c r="L2" t="n">
-        <v>881821.4790796734</v>
+        <v>0.001453822164607058</v>
       </c>
       <c r="M2" t="n">
-        <v>11876927.07876197</v>
+        <v>0.005011067310457769</v>
       </c>
       <c r="N2" t="n">
-        <v>4099455.740871071</v>
+        <v>0.006893416042957542</v>
       </c>
       <c r="O2" t="n">
-        <v>34341546.27560756</v>
+        <v>0.1580845707672065</v>
       </c>
       <c r="P2" t="n">
-        <v>11057179.57014362</v>
+        <v>0.004877071368552291</v>
       </c>
       <c r="Q2" t="n">
-        <v>12435785.1097479</v>
+        <v>0.002019191806821227</v>
       </c>
       <c r="R2" t="n">
-        <v>2003.894850194406</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>8039036.130098689</v>
+        <v>-3.885780586188048e-16</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0004261823285821309</v>
+        <v>0.9753653671203298</v>
       </c>
       <c r="U2" t="n">
-        <v>-5.17229195211022e-05</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.9751920589930496</v>
-      </c>
-      <c r="W2" t="n">
-        <v>998763.9735138718</v>
+        <v>0.001080818698233596</v>
       </c>
     </row>
     <row r="3">
@@ -577,70 +565,64 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16.10695065309265</v>
+        <v>0.01807900243458554</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02382423481758389</v>
+        <v>0.4219307300015666</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.002635909357750252</v>
+        <v>0.01414639304393093</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7163067075161165</v>
+        <v>0.01160490201657369</v>
       </c>
       <c r="F3" t="n">
-        <v>-13849.74233817151</v>
+        <v>0.452117864946083</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3140925024536891</v>
+        <v>0.0001642303688788446</v>
       </c>
       <c r="H3" t="n">
-        <v>122840403.7140712</v>
+        <v>0.0001151251784540421</v>
       </c>
       <c r="I3" t="n">
-        <v>126296956.0752307</v>
+        <v>0.000102533168046206</v>
       </c>
       <c r="J3" t="n">
-        <v>239131818.2563621</v>
+        <v>0.01445184959826285</v>
       </c>
       <c r="K3" t="n">
-        <v>74722755.82840388</v>
+        <v>0.000470009430260673</v>
       </c>
       <c r="L3" t="n">
-        <v>9431648.139029274</v>
+        <v>0.001228385677190819</v>
       </c>
       <c r="M3" t="n">
-        <v>64851809.80431302</v>
+        <v>0.001364513466758092</v>
       </c>
       <c r="N3" t="n">
-        <v>18464772.20508631</v>
+        <v>0.001482549412557472</v>
       </c>
       <c r="O3" t="n">
-        <v>103079697.5251069</v>
+        <v>0.1548803150318623</v>
       </c>
       <c r="P3" t="n">
-        <v>29965006.05652256</v>
+        <v>0.001693845690580785</v>
       </c>
       <c r="Q3" t="n">
-        <v>67749601.7619855</v>
+        <v>7.738668980449611e-05</v>
       </c>
       <c r="R3" t="n">
-        <v>2007.619118289</v>
+        <v>0.05483028720626634</v>
       </c>
       <c r="S3" t="n">
-        <v>28889341.94035631</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="T3" t="n">
-        <v>0.06643623751667567</v>
+        <v>0.9742028868039163</v>
       </c>
       <c r="U3" t="n">
-        <v>1.00035258117854</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.02130477897978145</v>
-      </c>
-      <c r="W3" t="n">
-        <v>7342247.549237077</v>
+        <v>0.0002067283287342059</v>
       </c>
     </row>
     <row r="4">
@@ -648,70 +630,64 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>22.20374183420869</v>
+        <v>0.03589945802641073</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02276596637489864</v>
+        <v>0.2817630285114754</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.002992150125784984</v>
+        <v>0.01004545222409479</v>
       </c>
       <c r="E4" t="n">
-        <v>3.555442667105063</v>
+        <v>0.02123444497242701</v>
       </c>
       <c r="F4" t="n">
-        <v>4785.182825899094</v>
+        <v>0.4120597553941197</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1726576820725324</v>
+        <v>0.008377470032927437</v>
       </c>
       <c r="H4" t="n">
-        <v>177787620.3281091</v>
+        <v>0.005040289268260639</v>
       </c>
       <c r="I4" t="n">
-        <v>182712262.2196205</v>
+        <v>0.007658363658368953</v>
       </c>
       <c r="J4" t="n">
-        <v>342808615.1922579</v>
+        <v>0.02242691098573115</v>
       </c>
       <c r="K4" t="n">
-        <v>112930511.272882</v>
+        <v>0.04982222480299045</v>
       </c>
       <c r="L4" t="n">
-        <v>12277132.75996074</v>
+        <v>0.004916759613107939</v>
       </c>
       <c r="M4" t="n">
-        <v>95763387.36874825</v>
+        <v>0.07003725504095687</v>
       </c>
       <c r="N4" t="n">
-        <v>25213209.65245573</v>
+        <v>0.07739804843716412</v>
       </c>
       <c r="O4" t="n">
-        <v>153073545.1498956</v>
+        <v>0.1967409789354632</v>
       </c>
       <c r="P4" t="n">
-        <v>45859003.48872148</v>
+        <v>0.06944114138474165</v>
       </c>
       <c r="Q4" t="n">
-        <v>89885235.45791289</v>
+        <v>0.02297342490403839</v>
       </c>
       <c r="R4" t="n">
-        <v>2001.133665174528</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="S4" t="n">
-        <v>44560062.54447249</v>
+        <v>-1.110223024625157e-16</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.002367516048503465</v>
+        <v>0.6170663056491803</v>
       </c>
       <c r="U4" t="n">
-        <v>0.000301418502411166</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.01372615590033754</v>
-      </c>
-      <c r="W4" t="n">
-        <v>9873252.204376915</v>
+        <v>0.01645573089609956</v>
       </c>
     </row>
     <row r="5">
@@ -719,70 +695,64 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33.51571560734907</v>
+        <v>0.0196627700263966</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2819830894240447</v>
+        <v>0.02343665358157898</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02047659631463464</v>
+        <v>0.001226430562387276</v>
       </c>
       <c r="E5" t="n">
-        <v>15.86262748290765</v>
+        <v>0.001792156160745535</v>
       </c>
       <c r="F5" t="n">
-        <v>63712.61591500811</v>
+        <v>0.2608899863120319</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2721577363034633</v>
+        <v>0.00654321846171034</v>
       </c>
       <c r="H5" t="n">
-        <v>248804089.0162922</v>
+        <v>0.008501265708267584</v>
       </c>
       <c r="I5" t="n">
-        <v>151326936.4224679</v>
+        <v>0.006958578519680139</v>
       </c>
       <c r="J5" t="n">
-        <v>433791149.5202806</v>
+        <v>0.02508187263504671</v>
       </c>
       <c r="K5" t="n">
-        <v>111401686.1315326</v>
+        <v>0.008174853218448899</v>
       </c>
       <c r="L5" t="n">
-        <v>35522847.61841943</v>
+        <v>0.007129314340549708</v>
       </c>
       <c r="M5" t="n">
-        <v>84867571.95466</v>
+        <v>0.009467887985301564</v>
       </c>
       <c r="N5" t="n">
-        <v>85918207.14506234</v>
+        <v>0.01468193976822453</v>
       </c>
       <c r="O5" t="n">
-        <v>472414521.8217878</v>
+        <v>0.1606333492052517</v>
       </c>
       <c r="P5" t="n">
-        <v>158892039.5583543</v>
+        <v>0.01008419503699789</v>
       </c>
       <c r="Q5" t="n">
-        <v>288529114.0746644</v>
+        <v>0.009503768137355584</v>
       </c>
       <c r="R5" t="n">
-        <v>2002.752378689687</v>
+        <v>1.387778780781446e-17</v>
       </c>
       <c r="S5" t="n">
-        <v>87899946.95288275</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1.0008820075889</v>
+        <v>0.01274946923263176</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.0001190536544344867</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.6166892822763081</v>
-      </c>
-      <c r="W5" t="n">
-        <v>29298806.21097578</v>
+        <v>0.001676362872048163</v>
       </c>
     </row>
     <row r="6">
@@ -790,70 +760,64 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>18.12554175882195</v>
+        <v>0.01915046059365404</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4221887940368352</v>
+        <v>0.02470874715100008</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0006560423458527826</v>
+        <v>0.002124610591900309</v>
       </c>
       <c r="E6" t="n">
-        <v>23.38371475807516</v>
+        <v>0.000552540773361308</v>
       </c>
       <c r="F6" t="n">
-        <v>36597.44556038638</v>
+        <v>0.474242733299337</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2985142035386429</v>
+        <v>0.0001393907522887</v>
       </c>
       <c r="H6" t="n">
-        <v>-27935128.90490137</v>
+        <v>0.0001011167964450729</v>
       </c>
       <c r="I6" t="n">
-        <v>-31744822.26693295</v>
+        <v>8.127054128247938e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>-58698826.8624173</v>
+        <v>0.01444439476599611</v>
       </c>
       <c r="K6" t="n">
-        <v>-16776574.43966644</v>
+        <v>0.0004206359169104503</v>
       </c>
       <c r="L6" t="n">
-        <v>-2232647.110999061</v>
+        <v>0.001207822400396796</v>
       </c>
       <c r="M6" t="n">
-        <v>-15339699.54908803</v>
+        <v>0.0009389519401157235</v>
       </c>
       <c r="N6" t="n">
-        <v>-3156683.604509045</v>
+        <v>0.001094279271379364</v>
       </c>
       <c r="O6" t="n">
-        <v>-17809853.27386748</v>
+        <v>0.1552382936402986</v>
       </c>
       <c r="P6" t="n">
-        <v>-5898402.356900777</v>
+        <v>0.0008796548784409143</v>
       </c>
       <c r="Q6" t="n">
-        <v>-11181114.99270893</v>
+        <v>5.084884390243929e-05</v>
       </c>
       <c r="R6" t="n">
-        <v>2009.836685760496</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S6" t="n">
-        <v>-7487110.554696994</v>
+        <v>1</v>
       </c>
       <c r="T6" t="n">
-        <v>0.05584422620494629</v>
+        <v>0.01952755952600005</v>
       </c>
       <c r="U6" t="n">
-        <v>0.9998946506473634</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.9737038600569399</v>
-      </c>
-      <c r="W6" t="n">
-        <v>-1551007.689849783</v>
+        <v>7.891616426508813e-05</v>
       </c>
     </row>
   </sheetData>
